--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>2f,0.5f,0f</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
   </si>
   <si>
     <t>true</t>
@@ -1244,7 +1241,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1316,14 +1313,14 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
+      <c r="E3" s="2">
+        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1331,22 +1328,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>-2.5f,7.25f,-2f</t>
+  </si>
+  <si>
+    <t>2,4</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1336,8 +1339,8 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
-        <v>2</v>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="27948" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>-2.5f,7.25f,-2f</t>
-  </si>
-  <si>
-    <t>2,4</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1241,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1317,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1339,8 +1336,8 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="E4">
+        <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12420"/>
+    <workbookView windowWidth="29868" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -62,21 +75,12 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>Atom</t>
-  </si>
-  <si>
-    <t>AudienceLevel</t>
-  </si>
-  <si>
-    <t>-2.5f,7.25f,-2f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1238,13 +1242,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.7777777777778" customWidth="1"/>
     <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
@@ -1323,29 +1327,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -44,9 +44,6 @@
     <t>DefaultInteractionID</t>
   </si>
   <si>
-    <t>DefaultRingID</t>
-  </si>
-  <si>
     <t>bActiveByDefault</t>
   </si>
   <si>
@@ -65,16 +62,37 @@
     <t>bool</t>
   </si>
   <si>
-    <t>Chatter</t>
+    <t>NPC_1_0</t>
   </si>
   <si>
     <t>DefaultLevel</t>
   </si>
   <si>
-    <t>2f,0.5f,0f</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>0f,0f,0f</t>
+  </si>
+  <si>
+    <t>NPC_1_1</t>
+  </si>
+  <si>
+    <t>NPC_1_2</t>
+  </si>
+  <si>
+    <t>NPC_1_3</t>
+  </si>
+  <si>
+    <t>DNPC_Item_0</t>
+  </si>
+  <si>
+    <t>DNPC_Item_1</t>
+  </si>
+  <si>
+    <t>DNPC_Item_2</t>
+  </si>
+  <si>
+    <t>DNPC_Item_3</t>
+  </si>
+  <si>
+    <t>DNPC_Trigger_0</t>
   </si>
 </sst>
 </file>
@@ -696,18 +714,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1242,23 +1254,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
     <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="22.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="23.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="26.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,54 +1289,205 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1101</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:6">
+      <c r="A10">
+        <v>1103</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1200</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -62,7 +62,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>NPC_1_0</t>
+    <t>NPC_S0_Guide</t>
   </si>
   <si>
     <t>DefaultLevel</t>
@@ -71,13 +71,28 @@
     <t>0f,0f,0f</t>
   </si>
   <si>
-    <t>NPC_1_1</t>
-  </si>
-  <si>
-    <t>NPC_1_2</t>
-  </si>
-  <si>
-    <t>NPC_1_3</t>
+    <t>NPC_C3_Dove</t>
+  </si>
+  <si>
+    <t>NPC_S1_Jack</t>
+  </si>
+  <si>
+    <t>NPC_S2_Bacon</t>
+  </si>
+  <si>
+    <t>NPC_P1_Darlan</t>
+  </si>
+  <si>
+    <t>NPC_P2_Lanuarius</t>
+  </si>
+  <si>
+    <t>NPC_P3_Francois</t>
+  </si>
+  <si>
+    <t>NPC_P4_Chesteria</t>
+  </si>
+  <si>
+    <t>NPC_C2_Veronique</t>
   </si>
   <si>
     <t>DNPC_Item_0</t>
@@ -1254,10 +1269,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1392,7 +1407,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>1100</v>
+        <v>1004</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1412,7 +1427,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1101</v>
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -1432,7 +1447,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1102</v>
+        <v>1006</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1450,9 +1465,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10">
-        <v>1103</v>
+        <v>1007</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
@@ -1472,7 +1487,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1200</v>
+        <v>1008</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1487,6 +1502,106 @@
         <v>-1</v>
       </c>
       <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:6">
+      <c r="A15">
+        <v>1103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="30720" windowHeight="13500"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -47,6 +47,9 @@
     <t>bActiveByDefault</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -98,16 +101,43 @@
     <t>DNPC_Item_0</t>
   </si>
   <si>
+    <t>Rules</t>
+  </si>
+  <si>
     <t>DNPC_Item_1</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>DNPC_Item_2</t>
   </si>
   <si>
+    <t>Sleep</t>
+  </si>
+  <si>
     <t>DNPC_Item_3</t>
   </si>
   <si>
+    <t>Connection Check</t>
+  </si>
+  <si>
     <t>DNPC_Trigger_0</t>
+  </si>
+  <si>
+    <t>Walk Outside</t>
+  </si>
+  <si>
+    <t>DNPC_Trigger_1</t>
+  </si>
+  <si>
+    <t>Join Game (Day 1)</t>
+  </si>
+  <si>
+    <t>DNPC_Trigger_TakeFood</t>
+  </si>
+  <si>
+    <t>Take Food Trigger</t>
   </si>
 </sst>
 </file>
@@ -1269,13 +1299,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="27.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
@@ -1283,9 +1313,10 @@
     <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
     <col min="5" max="5" width="22.1111111111111" customWidth="1"/>
     <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,39 +1335,45 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:6">
+    <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>-1</v>
@@ -1344,19 +1381,22 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
       <c r="E4">
         <v>-1</v>
@@ -1364,19 +1404,22 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>-1</v>
@@ -1384,19 +1427,22 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -1404,19 +1450,22 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>-1</v>
@@ -1424,19 +1473,22 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>-1</v>
@@ -1444,19 +1496,22 @@
       <c r="F8" t="b">
         <v>0</v>
       </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>-1</v>
@@ -1464,19 +1519,22 @@
       <c r="F9" t="b">
         <v>0</v>
       </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -1484,19 +1542,22 @@
       <c r="F10" t="b">
         <v>0</v>
       </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>-1</v>
@@ -1504,19 +1565,22 @@
       <c r="F11" t="b">
         <v>0</v>
       </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>1100</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>-1</v>
@@ -1524,19 +1588,22 @@
       <c r="F12" t="b">
         <v>0</v>
       </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>1101</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1544,19 +1611,22 @@
       <c r="F13" t="b">
         <v>0</v>
       </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1102</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>-1</v>
@@ -1564,19 +1634,22 @@
       <c r="F14" t="b">
         <v>0</v>
       </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="15" customFormat="1" spans="1:6">
+    <row r="15" customFormat="1" spans="1:7">
       <c r="A15">
         <v>1103</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>-1</v>
@@ -1584,25 +1657,77 @@
       <c r="F15" t="b">
         <v>0</v>
       </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>1200</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>-1</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1201</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>2200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13500"/>
+    <workbookView windowWidth="19200" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="NPC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -138,6 +138,24 @@
   </si>
   <si>
     <t>Take Food Trigger</t>
+  </si>
+  <si>
+    <t>NPC_S3_GGBond</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>NPC_S4_CatOwner</t>
+  </si>
+  <si>
+    <t>Cat Owner</t>
+  </si>
+  <si>
+    <t>NPC_S5_Samantha</t>
+  </si>
+  <si>
+    <t>Samantha</t>
   </si>
 </sst>
 </file>
@@ -1299,21 +1317,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="27.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="31.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="17.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="20.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="22.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="26.3333333333333" customWidth="1"/>
-    <col min="7" max="7" width="36.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="27.7787610619469" customWidth="1"/>
+    <col min="2" max="2" width="31.5575221238938" customWidth="1"/>
+    <col min="3" max="3" width="17.1150442477876" customWidth="1"/>
+    <col min="4" max="4" width="20.5575221238938" customWidth="1"/>
+    <col min="5" max="5" width="22.1150442477876" customWidth="1"/>
+    <col min="6" max="6" width="26.3362831858407" customWidth="1"/>
+    <col min="7" max="7" width="36.8849557522124" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1728,6 +1746,75 @@
       </c>
       <c r="G18" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>2002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>-1</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Designs/General/NPC.xlsx
+++ b/Assets/Designs/General/NPC.xlsx
@@ -1319,8 +1319,8 @@
   <sheetPr/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="6"/>
